--- a/Data_files/Rotterdam_train_adjacency_peri.xlsx
+++ b/Data_files/Rotterdam_train_adjacency_peri.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TimEW\PycharmProjects\Design_in_Network_group_8\Data_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E78F149-1645-4FC3-9E0D-62043400C4D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E955F58-FE2D-4154-AFF1-CC66E479E0D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1440" yWindow="1440" windowWidth="19170" windowHeight="9970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="12980" windowHeight="13770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -487,7 +487,7 @@
   <dimension ref="A1:U19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="54" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -574,7 +574,7 @@
         <v>106086</v>
       </c>
       <c r="E2">
-        <v>111.3943676</v>
+        <v>113.9789267</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -640,7 +640,7 @@
         <v>562839</v>
       </c>
       <c r="E3">
-        <v>591.0025306</v>
+        <v>604.71490226709398</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -706,7 +706,7 @@
         <v>121434</v>
       </c>
       <c r="E4">
-        <v>127.5103561</v>
+        <v>130.46883645572231</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -772,7 +772,7 @@
         <v>75316</v>
       </c>
       <c r="E5">
-        <v>79.084687790000004</v>
+        <v>80.919601483103435</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -904,7 +904,7 @@
         <v>110650</v>
       </c>
       <c r="E7">
-        <v>116.1867426</v>
+        <v>118.88249381413505</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -970,7 +970,7 @@
         <v>110650</v>
       </c>
       <c r="E8">
-        <v>116.1867426</v>
+        <v>118.88249381413505</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1036,7 +1036,7 @@
         <v>110650</v>
       </c>
       <c r="E9">
-        <v>116.1867426</v>
+        <v>118.88249381413505</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -1102,7 +1102,7 @@
         <v>110650</v>
       </c>
       <c r="E10">
-        <v>116.1867426</v>
+        <v>118.88249381413505</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -1168,7 +1168,7 @@
         <v>110650</v>
       </c>
       <c r="E11">
-        <v>116.1867426</v>
+        <v>118.88249381413505</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -1234,7 +1234,7 @@
         <v>110650</v>
       </c>
       <c r="E12">
-        <v>116.1867426</v>
+        <v>118.88249381413505</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         <v>77999</v>
       </c>
       <c r="E13">
-        <v>81.901940670000002</v>
+        <v>83.802219927778751</v>
       </c>
       <c r="F13">
         <v>1</v>
@@ -1366,7 +1366,7 @@
         <v>72561</v>
       </c>
       <c r="E14">
-        <v>76.191832160000004</v>
+        <v>77.959626151355195</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>75079</v>
       </c>
       <c r="E15">
-        <v>78.835828710000001</v>
+        <v>80.664968396488433</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -1498,7 +1498,7 @@
         <v>114887</v>
       </c>
       <c r="E16">
-        <v>120.635755</v>
+        <v>123.43473173813405</v>
       </c>
       <c r="F16">
         <v>1</v>
@@ -1564,7 +1564,7 @@
         <v>126998</v>
       </c>
       <c r="E17">
-        <v>133.3527694</v>
+        <v>136.44680478452347</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -1624,15 +1624,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000967D3B9FC1DD84EB00B55E5790AB85E" ma:contentTypeVersion="4" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="92ec66a21d0d7142cf1fb1ae8fa08641">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6ba023f1-a19b-4eec-904c-052d1f1cb5e0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="62a86672aac255264bf3f3decc56659c" ns2:_="">
     <xsd:import namespace="6ba023f1-a19b-4eec-904c-052d1f1cb5e0"/>
@@ -1776,6 +1767,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -1783,14 +1783,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7A916EAA-9C41-45E2-9615-1537E158943C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12E0B6E4-7A54-47C1-9DB2-4980C3ECE152}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1808,6 +1800,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7A916EAA-9C41-45E2-9615-1537E158943C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6184B6F-9C77-4F99-9C89-9DA6F4E4B4A9}">
   <ds:schemaRefs>
